--- a/lixiao/summary_2024-3/assess_绩效+软性考核表.xlsx
+++ b/lixiao/summary_2024-3/assess_绩效+软性考核表.xlsx
@@ -2771,7 +2771,7 @@
       </c>
       <c r="D15" s="23" t="inlineStr">
         <is>
-          <t>其他业务</t>
+          <t>固定业务</t>
         </is>
       </c>
       <c r="E15" s="37" t="inlineStr">
@@ -2894,17 +2894,73 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
+      <c r="A17" s="23" t="inlineStr">
+        <is>
+          <t>黄礼闯</t>
+        </is>
+      </c>
+      <c r="B17" s="23">
+        <v>11</v>
+      </c>
+      <c r="C17" s="23" t="inlineStr">
+        <is>
+          <t>戴心怡沟通</t>
+        </is>
+      </c>
+      <c r="D17" s="23" t="inlineStr">
+        <is>
+          <t>其他业务</t>
+        </is>
+      </c>
+      <c r="E17" s="37" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F17" s="23">
+        <v>1</v>
+      </c>
+      <c r="G17" s="38" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H17" s="39" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I17" s="23" t="inlineStr">
+        <is>
+          <t>完成</t>
+        </is>
+      </c>
+      <c r="J17" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K17" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="L17">
+        <v>180</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="23"/>
@@ -3036,7 +3092,7 @@
         <v>36</v>
       </c>
       <c r="F29" s="43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="26" t="inlineStr">
         <is>
@@ -3044,15 +3100,15 @@
         </is>
       </c>
       <c r="H29" s="26">
-        <v>0</v>
+        <v>0.226</v>
       </c>
       <c r="I29" s="51" t="inlineStr">
         <is>
-          <t/>
+          <t>0.226=0.226</t>
         </is>
       </c>
       <c r="J29" s="26">
-        <v>1.124</v>
+        <v>1.154</v>
       </c>
       <c r="K29" s="52"/>
     </row>
@@ -3070,11 +3126,11 @@
         </is>
       </c>
       <c r="H30" s="26">
-        <v>1.124</v>
+        <v>0.928</v>
       </c>
       <c r="I30" s="51" t="inlineStr">
         <is>
-          <t>0.254+0.008+0.058+0.058+0.17+0.114+0.086+0.142+0.226+0.008=1.124</t>
+          <t>0.254+0.008+0.058+0.058+0.17+0.114+0.086+0.142+0.008+0.03=0.928</t>
         </is>
       </c>
       <c r="J30" s="26"/>
